--- a/data/pca/factorExposure/factorExposure_2017-03-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-03-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.0160564940083262</v>
+        <v>0.01099564782023341</v>
       </c>
       <c r="C2">
-        <v>0.01773336057366072</v>
+        <v>-0.04189375997092937</v>
       </c>
       <c r="D2">
-        <v>-0.0277087578403922</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.02996360175096733</v>
+      </c>
+      <c r="E2">
+        <v>-0.0391678624770575</v>
+      </c>
+      <c r="F2">
+        <v>0.0007661078575203534</v>
+      </c>
+      <c r="G2">
+        <v>-0.1046635802662581</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01889960291616978</v>
+        <v>0.04019604522963185</v>
       </c>
       <c r="C3">
-        <v>-0.001041361423737709</v>
+        <v>-0.1001487389988537</v>
       </c>
       <c r="D3">
-        <v>-0.08922675594955987</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01795026393126712</v>
+      </c>
+      <c r="E3">
+        <v>-0.1031121994245523</v>
+      </c>
+      <c r="F3">
+        <v>-0.001893741918947162</v>
+      </c>
+      <c r="G3">
+        <v>-0.1569435796462306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02848062810446946</v>
+        <v>0.05540931807593256</v>
       </c>
       <c r="C4">
-        <v>0.007555582860985925</v>
+        <v>-0.06835420700120233</v>
       </c>
       <c r="D4">
-        <v>-0.07827237932836123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02483634706947337</v>
+      </c>
+      <c r="E4">
+        <v>-0.03633820986109856</v>
+      </c>
+      <c r="F4">
+        <v>0.009277622999396159</v>
+      </c>
+      <c r="G4">
+        <v>-0.1000943012082132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01230066360573311</v>
+        <v>0.03595950210044697</v>
       </c>
       <c r="C6">
-        <v>0.009583138761526845</v>
+        <v>-0.05055909135435618</v>
       </c>
       <c r="D6">
-        <v>-0.07515752338719121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.0173672196374387</v>
+      </c>
+      <c r="E6">
+        <v>-0.04077353284378453</v>
+      </c>
+      <c r="F6">
+        <v>0.003658900903385527</v>
+      </c>
+      <c r="G6">
+        <v>-0.08778900209088308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.004554015259742397</v>
+        <v>0.02062199738569439</v>
       </c>
       <c r="C7">
-        <v>0.01048094260845582</v>
+        <v>-0.03987569462478</v>
       </c>
       <c r="D7">
-        <v>-0.03590903566548177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.01407742427162273</v>
+      </c>
+      <c r="E7">
+        <v>-0.008909871506175433</v>
+      </c>
+      <c r="F7">
+        <v>-0.004869104940851619</v>
+      </c>
+      <c r="G7">
+        <v>-0.1232138232000445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.003122821562079492</v>
+        <v>0.002564805762108601</v>
       </c>
       <c r="C8">
-        <v>0.002897961283280189</v>
+        <v>-0.02440398338767898</v>
       </c>
       <c r="D8">
-        <v>0.005765900129559516</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.004006029129225794</v>
+      </c>
+      <c r="E8">
+        <v>-0.03153759367167238</v>
+      </c>
+      <c r="F8">
+        <v>0.002731177539289426</v>
+      </c>
+      <c r="G8">
+        <v>-0.07134491893288457</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.0140283747492693</v>
+        <v>0.03379584070875908</v>
       </c>
       <c r="C9">
-        <v>0.007337086574475175</v>
+        <v>-0.04950808307115093</v>
       </c>
       <c r="D9">
-        <v>-0.05693835625582188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01645514558983836</v>
+      </c>
+      <c r="E9">
+        <v>-0.0250638835719693</v>
+      </c>
+      <c r="F9">
+        <v>0.006769778268336796</v>
+      </c>
+      <c r="G9">
+        <v>-0.09989689257679474</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1429450401559932</v>
+        <v>0.09845808237785034</v>
       </c>
       <c r="C10">
-        <v>-0.1056827888061242</v>
+        <v>0.1843307838709428</v>
       </c>
       <c r="D10">
-        <v>0.1104100216341392</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.0155631098451725</v>
+      </c>
+      <c r="E10">
+        <v>-0.0199560901214712</v>
+      </c>
+      <c r="F10">
+        <v>-0.02197228026201684</v>
+      </c>
+      <c r="G10">
+        <v>-0.05732900892283141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.002253545918162671</v>
+        <v>0.0343858367763972</v>
       </c>
       <c r="C11">
-        <v>-0.000509132952004413</v>
+        <v>-0.0530222595610441</v>
       </c>
       <c r="D11">
-        <v>-0.05126718501883074</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.002639453836212248</v>
+      </c>
+      <c r="E11">
+        <v>-0.01987101502272837</v>
+      </c>
+      <c r="F11">
+        <v>0.01792417055649265</v>
+      </c>
+      <c r="G11">
+        <v>-0.09032311282066408</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.004933999787416606</v>
+        <v>0.03590071453959306</v>
       </c>
       <c r="C12">
-        <v>0.003551838725134829</v>
+        <v>-0.04761727471041275</v>
       </c>
       <c r="D12">
-        <v>-0.04346312559787339</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.006686998106671094</v>
+      </c>
+      <c r="E12">
+        <v>-0.01042639273063824</v>
+      </c>
+      <c r="F12">
+        <v>0.0008013439128363561</v>
+      </c>
+      <c r="G12">
+        <v>-0.08219354647236972</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01816864706655654</v>
+        <v>0.01531860806274902</v>
       </c>
       <c r="C13">
-        <v>0.01313645301143348</v>
+        <v>-0.04219477852533442</v>
       </c>
       <c r="D13">
-        <v>-0.03467268712732695</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02679258823351606</v>
+      </c>
+      <c r="E13">
+        <v>-0.03994118483525687</v>
+      </c>
+      <c r="F13">
+        <v>-0.0006546557234823002</v>
+      </c>
+      <c r="G13">
+        <v>-0.1411137106196372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.003282205745996579</v>
+        <v>0.007908663594087567</v>
       </c>
       <c r="C14">
-        <v>0.005883201614838689</v>
+        <v>-0.02861608429122486</v>
       </c>
       <c r="D14">
-        <v>-0.01875357086977133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01032026101032657</v>
+      </c>
+      <c r="E14">
+        <v>-0.009501519104542708</v>
+      </c>
+      <c r="F14">
+        <v>-0.008077584197887648</v>
+      </c>
+      <c r="G14">
+        <v>-0.1075989849204626</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.005546640849510869</v>
+        <v>0.0330892764281979</v>
       </c>
       <c r="C16">
-        <v>-0.002980069658218077</v>
+        <v>-0.04632049932368709</v>
       </c>
       <c r="D16">
-        <v>-0.04133603920116424</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.002102474026191892</v>
+      </c>
+      <c r="E16">
+        <v>-0.01641971937373161</v>
+      </c>
+      <c r="F16">
+        <v>-0.0005647671461043221</v>
+      </c>
+      <c r="G16">
+        <v>-0.09238846698623446</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01101081795093841</v>
+        <v>0.02218101155038072</v>
       </c>
       <c r="C19">
-        <v>0.007993038674813241</v>
+        <v>-0.05105626273404011</v>
       </c>
       <c r="D19">
-        <v>-0.03779641695620284</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.01960590224321659</v>
+      </c>
+      <c r="E19">
+        <v>-0.08388785222475739</v>
+      </c>
+      <c r="F19">
+        <v>0.01290865982439853</v>
+      </c>
+      <c r="G19">
+        <v>-0.1386815136393522</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.004793941567644964</v>
+        <v>0.01554193611367892</v>
       </c>
       <c r="C20">
-        <v>0.00947235533921756</v>
+        <v>-0.04172731161661636</v>
       </c>
       <c r="D20">
-        <v>-0.03238354742408578</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.01443293809633596</v>
+      </c>
+      <c r="E20">
+        <v>-0.03938257058911511</v>
+      </c>
+      <c r="F20">
+        <v>-0.0163540658150557</v>
+      </c>
+      <c r="G20">
+        <v>-0.1114724269036017</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01200935521754157</v>
+        <v>0.01115006900729361</v>
       </c>
       <c r="C21">
-        <v>0.00711843485783861</v>
+        <v>-0.03891200004832983</v>
       </c>
       <c r="D21">
-        <v>-0.02001753488515258</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.01956199515369022</v>
+      </c>
+      <c r="E21">
+        <v>-0.05338287064899978</v>
+      </c>
+      <c r="F21">
+        <v>-0.003958659399857182</v>
+      </c>
+      <c r="G21">
+        <v>-0.1389884197283085</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.002009412954265445</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>5.754219684422392e-05</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.0007642789204653724</v>
+      </c>
+      <c r="E22">
+        <v>-0.005918475889660949</v>
+      </c>
+      <c r="F22">
+        <v>0.002563732641450247</v>
+      </c>
+      <c r="G22">
+        <v>-0.007281764676970637</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.002001919380607567</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>6.270114353685843e-05</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.0007593843274957668</v>
+      </c>
+      <c r="E23">
+        <v>-0.005878925974588066</v>
+      </c>
+      <c r="F23">
+        <v>0.002530498846925462</v>
+      </c>
+      <c r="G23">
+        <v>-0.00716473363437874</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.0009726182812370663</v>
+        <v>0.02812253730792805</v>
       </c>
       <c r="C24">
-        <v>0.00699919982151016</v>
+        <v>-0.05032932867840391</v>
       </c>
       <c r="D24">
-        <v>-0.04431515260724075</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.007352166117662583</v>
+      </c>
+      <c r="E24">
+        <v>-0.0144080878472639</v>
+      </c>
+      <c r="F24">
+        <v>0.01038545390463463</v>
+      </c>
+      <c r="G24">
+        <v>-0.09067819797610251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01585683316851218</v>
+        <v>0.04211816497851347</v>
       </c>
       <c r="C25">
-        <v>0.001729417580629447</v>
+        <v>-0.05751467852216754</v>
       </c>
       <c r="D25">
-        <v>-0.05845173932938996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01134513262391982</v>
+      </c>
+      <c r="E25">
+        <v>-0.006104517396434152</v>
+      </c>
+      <c r="F25">
+        <v>0.004123414526986602</v>
+      </c>
+      <c r="G25">
+        <v>-0.09856149807480065</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01224093936440794</v>
+        <v>0.01335889364696805</v>
       </c>
       <c r="C26">
-        <v>0.01787219393225705</v>
+        <v>-0.01278212053941385</v>
       </c>
       <c r="D26">
-        <v>0.000171093667270486</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02425108858650802</v>
+      </c>
+      <c r="E26">
+        <v>-0.01031006539180125</v>
+      </c>
+      <c r="F26">
+        <v>-0.007671179278714731</v>
+      </c>
+      <c r="G26">
+        <v>-0.08337544715789925</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1937049214423857</v>
+        <v>0.1259769895416292</v>
       </c>
       <c r="C28">
-        <v>-0.1253349838019905</v>
+        <v>0.2416386915689622</v>
       </c>
       <c r="D28">
-        <v>0.1400325221211495</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.006630012375275664</v>
+      </c>
+      <c r="E28">
+        <v>-0.00878951051629339</v>
+      </c>
+      <c r="F28">
+        <v>-0.01705751965099025</v>
+      </c>
+      <c r="G28">
+        <v>-0.04853037312008283</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.008927654961468724</v>
+        <v>0.008660019309033781</v>
       </c>
       <c r="C29">
-        <v>0.001568691623417999</v>
+        <v>-0.02315608747343315</v>
       </c>
       <c r="D29">
-        <v>-0.01610569068354138</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.009396880617855725</v>
+      </c>
+      <c r="E29">
+        <v>-0.0058550736646648</v>
+      </c>
+      <c r="F29">
+        <v>-0.01451604809338101</v>
+      </c>
+      <c r="G29">
+        <v>-0.09923275595396916</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.01189092820840124</v>
+        <v>0.0411437491856888</v>
       </c>
       <c r="C30">
-        <v>0.02111426164509103</v>
+        <v>-0.06844899518068925</v>
       </c>
       <c r="D30">
-        <v>-0.09873436079178319</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.02930221244277674</v>
+      </c>
+      <c r="E30">
+        <v>-0.06490924564097968</v>
+      </c>
+      <c r="F30">
+        <v>0.03975971258986995</v>
+      </c>
+      <c r="G30">
+        <v>-0.1347935927122419</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.02478723414983231</v>
+        <v>0.05299077285421423</v>
       </c>
       <c r="C31">
-        <v>-0.01132788551104939</v>
+        <v>-0.03861973946036065</v>
       </c>
       <c r="D31">
-        <v>-0.03210021434186268</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.003832381793739724</v>
+      </c>
+      <c r="E31">
+        <v>0.001012917604977864</v>
+      </c>
+      <c r="F31">
+        <v>-0.03912612955912994</v>
+      </c>
+      <c r="G31">
+        <v>-0.0990575901634756</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.0009035129097963694</v>
+        <v>0.002290757595998311</v>
       </c>
       <c r="C32">
-        <v>-0.01054392454025136</v>
+        <v>-0.0228067442210044</v>
       </c>
       <c r="D32">
-        <v>0.001854163843969675</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.00263032287601208</v>
+      </c>
+      <c r="E32">
+        <v>-0.03906048283672244</v>
+      </c>
+      <c r="F32">
+        <v>0.03771640026749613</v>
+      </c>
+      <c r="G32">
+        <v>-0.08703185326045182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.009887081751878359</v>
+        <v>0.02792898881612542</v>
       </c>
       <c r="C33">
-        <v>0.006595299017145953</v>
+        <v>-0.05080639328995247</v>
       </c>
       <c r="D33">
-        <v>-0.04137280868594883</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01625912372859075</v>
+      </c>
+      <c r="E33">
+        <v>-0.0478061892525958</v>
+      </c>
+      <c r="F33">
+        <v>0.01262928872514956</v>
+      </c>
+      <c r="G33">
+        <v>-0.1627254142439184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.009168443569137678</v>
+        <v>0.03967326879016814</v>
       </c>
       <c r="C34">
-        <v>-0.01303346086591922</v>
+        <v>-0.05937972317791643</v>
       </c>
       <c r="D34">
-        <v>-0.05613677768806748</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.004164991868637656</v>
+      </c>
+      <c r="E34">
+        <v>-0.01144876036671631</v>
+      </c>
+      <c r="F34">
+        <v>0.02070545516547941</v>
+      </c>
+      <c r="G34">
+        <v>-0.09401809392734099</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01447807619240261</v>
+        <v>0.01574658378824694</v>
       </c>
       <c r="C36">
-        <v>0.002687828479112774</v>
+        <v>-0.00997943238178655</v>
       </c>
       <c r="D36">
-        <v>-0.004114789675984035</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01279451658203247</v>
+      </c>
+      <c r="E36">
+        <v>-0.01067183084324801</v>
+      </c>
+      <c r="F36">
+        <v>-0.007884165064758262</v>
+      </c>
+      <c r="G36">
+        <v>-0.0931203100907772</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.01599957580737027</v>
+        <v>0.03114567577490879</v>
       </c>
       <c r="C38">
-        <v>-0.02013037762783522</v>
+        <v>-0.029641407610336</v>
       </c>
       <c r="D38">
-        <v>-0.04007041717379504</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.007543587089531424</v>
+      </c>
+      <c r="E38">
+        <v>-0.007183488216308593</v>
+      </c>
+      <c r="F38">
+        <v>-0.01839759934298017</v>
+      </c>
+      <c r="G38">
+        <v>-0.08707337343956045</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.01059937040585746</v>
+        <v>0.03658999865212111</v>
       </c>
       <c r="C39">
-        <v>0.01798859435366352</v>
+        <v>-0.07949133683046058</v>
       </c>
       <c r="D39">
-        <v>-0.09961370258159939</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01189193330200345</v>
+      </c>
+      <c r="E39">
+        <v>-0.03163972224841891</v>
+      </c>
+      <c r="F39">
+        <v>0.02043242685588768</v>
+      </c>
+      <c r="G39">
+        <v>-0.08948958285251614</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.0151791071422203</v>
+        <v>0.01325140627632516</v>
       </c>
       <c r="C40">
-        <v>0.002376151451653099</v>
+        <v>-0.03955885781355469</v>
       </c>
       <c r="D40">
-        <v>-0.03045781811634559</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01494122031399447</v>
+      </c>
+      <c r="E40">
+        <v>-0.03286715171084902</v>
+      </c>
+      <c r="F40">
+        <v>-0.01102365747679894</v>
+      </c>
+      <c r="G40">
+        <v>-0.1236973509866366</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.0151404805920853</v>
+        <v>0.02074842796975867</v>
       </c>
       <c r="C41">
-        <v>-0.006714672664658863</v>
+        <v>-0.003130434237938701</v>
       </c>
       <c r="D41">
-        <v>0.01038631424218073</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.004581998894024822</v>
+      </c>
+      <c r="E41">
+        <v>-0.007629507240497125</v>
+      </c>
+      <c r="F41">
+        <v>-0.0159142911068063</v>
+      </c>
+      <c r="G41">
+        <v>-0.08596609175685471</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.03751432642148675</v>
+        <v>0.008280533549344483</v>
       </c>
       <c r="C42">
-        <v>0.08598716819456688</v>
+        <v>-0.03215530338399596</v>
       </c>
       <c r="D42">
-        <v>-0.1240698746840394</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.08789535118844047</v>
+      </c>
+      <c r="E42">
+        <v>-0.01159373263338854</v>
+      </c>
+      <c r="F42">
+        <v>-0.03914371224213154</v>
+      </c>
+      <c r="G42">
+        <v>0.02717851506225801</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.01510395171920574</v>
+        <v>0.03476773849582632</v>
       </c>
       <c r="C43">
-        <v>-0.005806306849520665</v>
+        <v>-0.01881431945241378</v>
       </c>
       <c r="D43">
-        <v>0.01032184344113864</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.006122655755877626</v>
+      </c>
+      <c r="E43">
+        <v>-0.02197702638340309</v>
+      </c>
+      <c r="F43">
+        <v>-0.008026441495240797</v>
+      </c>
+      <c r="G43">
+        <v>-0.119993889731766</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.0002237330079036855</v>
+        <v>0.01371724412664094</v>
       </c>
       <c r="C44">
-        <v>0.002995210971934725</v>
+        <v>-0.05943853567330356</v>
       </c>
       <c r="D44">
-        <v>-0.04810952485263852</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.007018881976479845</v>
+      </c>
+      <c r="E44">
+        <v>-0.02582338687673446</v>
+      </c>
+      <c r="F44">
+        <v>-0.006626430167101185</v>
+      </c>
+      <c r="G44">
+        <v>-0.1098990020893919</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.006976482693491115</v>
+        <v>0.008779288739636945</v>
       </c>
       <c r="C46">
-        <v>0.006774409466534939</v>
+        <v>-0.01525340049939538</v>
       </c>
       <c r="D46">
-        <v>0.003913272174375942</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01266517091468579</v>
+      </c>
+      <c r="E46">
+        <v>-0.001384563655929003</v>
+      </c>
+      <c r="F46">
+        <v>-0.01776655867337348</v>
+      </c>
+      <c r="G46">
+        <v>-0.1075085210798798</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.02273923625176827</v>
+        <v>0.07786248473069372</v>
       </c>
       <c r="C47">
-        <v>-0.01768575587924939</v>
+        <v>-0.06929396744539208</v>
       </c>
       <c r="D47">
-        <v>-0.07561586951861014</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.00497902219498527</v>
+      </c>
+      <c r="E47">
+        <v>0.007914678224910706</v>
+      </c>
+      <c r="F47">
+        <v>-0.05279862465841848</v>
+      </c>
+      <c r="G47">
+        <v>-0.08385020095577773</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.008750919526421671</v>
+        <v>0.01842481420232403</v>
       </c>
       <c r="C48">
-        <v>-0.004900106897425596</v>
+        <v>-0.01334090328899116</v>
       </c>
       <c r="D48">
-        <v>-0.01561473059401229</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.002476505873395647</v>
+      </c>
+      <c r="E48">
+        <v>-0.006764069929514459</v>
+      </c>
+      <c r="F48">
+        <v>-0.01905073702902431</v>
+      </c>
+      <c r="G48">
+        <v>-0.09903047515878013</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.03170320209905029</v>
+        <v>0.07535901868745899</v>
       </c>
       <c r="C50">
-        <v>-0.02197332907183897</v>
+        <v>-0.07193725440187621</v>
       </c>
       <c r="D50">
-        <v>-0.07001835285641762</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.002152883859005379</v>
+      </c>
+      <c r="E50">
+        <v>0.004367972130512804</v>
+      </c>
+      <c r="F50">
+        <v>-0.05394634420734724</v>
+      </c>
+      <c r="G50">
+        <v>-0.09408536801636955</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.008421868844302533</v>
+        <v>0.0144127961975737</v>
       </c>
       <c r="C51">
-        <v>0.001003531804660877</v>
+        <v>-0.03713520616327014</v>
       </c>
       <c r="D51">
-        <v>-0.02714790764851716</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01063551132349508</v>
+      </c>
+      <c r="E51">
+        <v>-0.03089716859210133</v>
+      </c>
+      <c r="F51">
+        <v>0.01845552963290714</v>
+      </c>
+      <c r="G51">
+        <v>-0.1248898083984185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.03812769611948168</v>
+        <v>0.08199156561410392</v>
       </c>
       <c r="C53">
-        <v>-0.02594171249755745</v>
+        <v>-0.08520160826670063</v>
       </c>
       <c r="D53">
-        <v>-0.1253225226681945</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003372146872255873</v>
+      </c>
+      <c r="E53">
+        <v>0.02679898772139664</v>
+      </c>
+      <c r="F53">
+        <v>-0.06036451350126423</v>
+      </c>
+      <c r="G53">
+        <v>-0.09425700006424839</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01708377962906444</v>
+        <v>0.03115743112964249</v>
       </c>
       <c r="C54">
-        <v>-0.01563717515951137</v>
+        <v>-0.01889592826090759</v>
       </c>
       <c r="D54">
-        <v>0.001547771370605851</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.001033595260492864</v>
+      </c>
+      <c r="E54">
+        <v>-0.02049582398718482</v>
+      </c>
+      <c r="F54">
+        <v>-0.006386082654753531</v>
+      </c>
+      <c r="G54">
+        <v>-0.1079064560204406</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.02079716451715525</v>
+        <v>0.07193570908596719</v>
       </c>
       <c r="C55">
-        <v>-0.01535412084726862</v>
+        <v>-0.06768780726973049</v>
       </c>
       <c r="D55">
-        <v>-0.1005739857027786</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.004991925996943986</v>
+      </c>
+      <c r="E55">
+        <v>0.02467787605067086</v>
+      </c>
+      <c r="F55">
+        <v>-0.0613225924750162</v>
+      </c>
+      <c r="G55">
+        <v>-0.07017956348612302</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.04369762164326615</v>
+        <v>0.1365846514359615</v>
       </c>
       <c r="C56">
-        <v>-0.03427263632699726</v>
+        <v>-0.107466938170041</v>
       </c>
       <c r="D56">
-        <v>-0.1595921059267098</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01259830682943675</v>
+      </c>
+      <c r="E56">
+        <v>0.03704474451549361</v>
+      </c>
+      <c r="F56">
+        <v>-0.07806174863821164</v>
+      </c>
+      <c r="G56">
+        <v>-0.04424849031053918</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02010051524211812</v>
+        <v>0.006094806083716521</v>
       </c>
       <c r="C57">
-        <v>0.0132010226326682</v>
+        <v>-0.006464331349397642</v>
       </c>
       <c r="D57">
-        <v>-0.03087907412679311</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02274509661793796</v>
+      </c>
+      <c r="E57">
+        <v>-0.0249646215261687</v>
+      </c>
+      <c r="F57">
+        <v>0.005328245164404044</v>
+      </c>
+      <c r="G57">
+        <v>-0.02261229337217567</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.02253368462230471</v>
+        <v>0.05066187394121242</v>
       </c>
       <c r="C58">
-        <v>-0.01342580789101069</v>
+        <v>-0.04242436817069218</v>
       </c>
       <c r="D58">
-        <v>-0.106462090304782</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.02227083517137344</v>
+      </c>
+      <c r="E58">
+        <v>-0.8885420747238754</v>
+      </c>
+      <c r="F58">
+        <v>-0.3343707076512182</v>
+      </c>
+      <c r="G58">
+        <v>0.2389379129841288</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.2168767482119454</v>
+        <v>0.1592828862539704</v>
       </c>
       <c r="C59">
-        <v>-0.1468450497031145</v>
+        <v>0.2065063610107396</v>
       </c>
       <c r="D59">
-        <v>0.111335283091176</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.01142509055045093</v>
+      </c>
+      <c r="E59">
+        <v>-0.02195780112123294</v>
+      </c>
+      <c r="F59">
+        <v>-0.0022597099969744</v>
+      </c>
+      <c r="G59">
+        <v>-0.04279477138814952</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.1870783084094257</v>
+        <v>0.2868472245845808</v>
       </c>
       <c r="C60">
-        <v>-0.1038201281106595</v>
+        <v>-0.1097447695129002</v>
       </c>
       <c r="D60">
-        <v>-0.1645985806788536</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01258795534418857</v>
+      </c>
+      <c r="E60">
+        <v>-0.02523576319751942</v>
+      </c>
+      <c r="F60">
+        <v>0.3387552370090672</v>
+      </c>
+      <c r="G60">
+        <v>0.1608073301614066</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.002476721878164935</v>
+        <v>0.03853690771198087</v>
       </c>
       <c r="C61">
-        <v>0.002320784418525624</v>
+        <v>-0.06555697543208082</v>
       </c>
       <c r="D61">
-        <v>-0.07527169105558423</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.005875623328663832</v>
+      </c>
+      <c r="E61">
+        <v>-0.02661420847555633</v>
+      </c>
+      <c r="F61">
+        <v>0.01256018331657251</v>
+      </c>
+      <c r="G61">
+        <v>-0.09800518937027533</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.00533795654226358</v>
+        <v>0.01494591326256918</v>
       </c>
       <c r="C63">
-        <v>0.005005196216318048</v>
+        <v>-0.03034508305485358</v>
       </c>
       <c r="D63">
-        <v>-0.02551591081627387</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.008747874220952795</v>
+      </c>
+      <c r="E63">
+        <v>-0.00663258056353538</v>
+      </c>
+      <c r="F63">
+        <v>-0.01435540513458054</v>
+      </c>
+      <c r="G63">
+        <v>-0.0951110027405503</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.02578660640969737</v>
+        <v>0.04944039682339593</v>
       </c>
       <c r="C64">
-        <v>-0.01123062372145594</v>
+        <v>-0.04811691911382398</v>
       </c>
       <c r="D64">
-        <v>-0.05873655399865235</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006479148095599179</v>
+      </c>
+      <c r="E64">
+        <v>-0.008863862859132187</v>
+      </c>
+      <c r="F64">
+        <v>0.00505116213939797</v>
+      </c>
+      <c r="G64">
+        <v>-0.09963094518245154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.03047862947481876</v>
+        <v>0.07461113586970144</v>
       </c>
       <c r="C65">
-        <v>5.868558410472248e-05</v>
+        <v>-0.05776469157978609</v>
       </c>
       <c r="D65">
-        <v>-0.1126685589750366</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01704920290634671</v>
+      </c>
+      <c r="E65">
+        <v>-0.04454864535773529</v>
+      </c>
+      <c r="F65">
+        <v>0.02601882486593291</v>
+      </c>
+      <c r="G65">
+        <v>-0.04488386289294856</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.008146911964501071</v>
+        <v>0.05063983829974948</v>
       </c>
       <c r="C66">
-        <v>0.01584918345712896</v>
+        <v>-0.1063414562515849</v>
       </c>
       <c r="D66">
-        <v>-0.1421179959096727</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.01204895062646498</v>
+      </c>
+      <c r="E66">
+        <v>-0.04533251361406058</v>
+      </c>
+      <c r="F66">
+        <v>0.03193166622164804</v>
+      </c>
+      <c r="G66">
+        <v>-0.1047242222943621</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.03703112918620843</v>
+        <v>0.05423019526759205</v>
       </c>
       <c r="C67">
-        <v>-0.03027193749449006</v>
+        <v>-0.03333742516360513</v>
       </c>
       <c r="D67">
-        <v>-0.06004843533574857</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.006115839168502916</v>
+      </c>
+      <c r="E67">
+        <v>0.002871059033846795</v>
+      </c>
+      <c r="F67">
+        <v>-0.0173344658463583</v>
+      </c>
+      <c r="G67">
+        <v>-0.07463310286240228</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.2216849864110955</v>
+        <v>0.1559029132553765</v>
       </c>
       <c r="C68">
-        <v>-0.1268076726804769</v>
+        <v>0.2699245300330045</v>
       </c>
       <c r="D68">
-        <v>0.1739453854430976</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.005672393480734415</v>
+      </c>
+      <c r="E68">
+        <v>-0.01014354572125405</v>
+      </c>
+      <c r="F68">
+        <v>-0.03845021136839319</v>
+      </c>
+      <c r="G68">
+        <v>-0.03110046234386517</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.02990367974319327</v>
+        <v>0.08225597754460642</v>
       </c>
       <c r="C69">
-        <v>-0.02725963079196537</v>
+        <v>-0.06960385839065701</v>
       </c>
       <c r="D69">
-        <v>-0.07806134588558254</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.009098433617484258</v>
+      </c>
+      <c r="E69">
+        <v>0.02129150920503816</v>
+      </c>
+      <c r="F69">
+        <v>-0.0348704440077084</v>
+      </c>
+      <c r="G69">
+        <v>-0.1013206232397027</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1802493239215648</v>
+        <v>0.1411091978179674</v>
       </c>
       <c r="C71">
-        <v>-0.1106913001006491</v>
+        <v>0.2289712810943735</v>
       </c>
       <c r="D71">
-        <v>0.1194305973212392</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.002755511329883224</v>
+      </c>
+      <c r="E71">
+        <v>-0.03101861946674297</v>
+      </c>
+      <c r="F71">
+        <v>-0.02795035913945416</v>
+      </c>
+      <c r="G71">
+        <v>-0.07190323689220439</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.01392708669453082</v>
+        <v>0.08489301068778138</v>
       </c>
       <c r="C72">
-        <v>-0.01675213986771035</v>
+        <v>-0.06932556563245605</v>
       </c>
       <c r="D72">
-        <v>-0.1078238367899215</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.008209247639601409</v>
+      </c>
+      <c r="E72">
+        <v>0.007072146386408545</v>
+      </c>
+      <c r="F72">
+        <v>0.0340743933879338</v>
+      </c>
+      <c r="G72">
+        <v>-0.08926986465766386</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.2325979585596761</v>
+        <v>0.3754452224683891</v>
       </c>
       <c r="C73">
-        <v>-0.1233158597510352</v>
+        <v>-0.1175552189714805</v>
       </c>
       <c r="D73">
-        <v>-0.292060659860452</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.02256961761682785</v>
+      </c>
+      <c r="E73">
+        <v>-0.1178683086686105</v>
+      </c>
+      <c r="F73">
+        <v>0.5769518672902183</v>
+      </c>
+      <c r="G73">
+        <v>0.2916760105013394</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.0449274470193047</v>
+        <v>0.1049326030449848</v>
       </c>
       <c r="C74">
-        <v>-0.03702021753909224</v>
+        <v>-0.1092955732330018</v>
       </c>
       <c r="D74">
-        <v>-0.1718146445310684</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.00943738278464884</v>
+      </c>
+      <c r="E74">
+        <v>0.0107125602315631</v>
+      </c>
+      <c r="F74">
+        <v>-0.0673904552774125</v>
+      </c>
+      <c r="G74">
+        <v>-0.08329962171096139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.1135991855277182</v>
+        <v>0.2483846778903289</v>
       </c>
       <c r="C75">
-        <v>-0.0882114502739484</v>
+        <v>-0.1523739544177364</v>
       </c>
       <c r="D75">
-        <v>-0.3018038933948196</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03137710177388715</v>
+      </c>
+      <c r="E75">
+        <v>0.07857469768705107</v>
+      </c>
+      <c r="F75">
+        <v>-0.1587525228786273</v>
+      </c>
+      <c r="G75">
+        <v>0.01875897666197097</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.05167649530408838</v>
+        <v>0.1176782068029828</v>
       </c>
       <c r="C76">
-        <v>-0.04759212031336514</v>
+        <v>-0.1088679507379621</v>
       </c>
       <c r="D76">
-        <v>-0.1988823976763667</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01764121734418675</v>
+      </c>
+      <c r="E76">
+        <v>0.03005466845758764</v>
+      </c>
+      <c r="F76">
+        <v>-0.09561181029363301</v>
+      </c>
+      <c r="G76">
+        <v>-0.0586415294946886</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01706172269827219</v>
+        <v>0.07133898672529249</v>
       </c>
       <c r="C77">
-        <v>-8.283614349619892e-05</v>
+        <v>-0.06168413114935131</v>
       </c>
       <c r="D77">
-        <v>-0.082793748883913</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.01043400427551932</v>
+      </c>
+      <c r="E77">
+        <v>-0.05157142386588389</v>
+      </c>
+      <c r="F77">
+        <v>0.009277370229563138</v>
+      </c>
+      <c r="G77">
+        <v>-0.06421713018095369</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.008649649307988999</v>
+        <v>0.04259266540341209</v>
       </c>
       <c r="C78">
-        <v>-0.0009941382010260368</v>
+        <v>-0.04808398732261929</v>
       </c>
       <c r="D78">
-        <v>-0.06429551338267103</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.006053292507891644</v>
+      </c>
+      <c r="E78">
+        <v>-0.03376390819718973</v>
+      </c>
+      <c r="F78">
+        <v>0.03366513295412504</v>
+      </c>
+      <c r="G78">
+        <v>-0.10396232743434</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.000326528996074849</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.000471604293428196</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0001981238715155467</v>
+      </c>
+      <c r="E79">
+        <v>-0.002415852117841148</v>
+      </c>
+      <c r="F79">
+        <v>0.001398586617575584</v>
+      </c>
+      <c r="G79">
+        <v>-0.0007195967674980407</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03300420386396154</v>
+        <v>0.04312871207666041</v>
       </c>
       <c r="C80">
-        <v>-0.008568846620810701</v>
+        <v>-0.05176613855581367</v>
       </c>
       <c r="D80">
-        <v>-0.07500832441632825</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01325974535226015</v>
+      </c>
+      <c r="E80">
+        <v>-0.02702510110225634</v>
+      </c>
+      <c r="F80">
+        <v>0.007889505417994871</v>
+      </c>
+      <c r="G80">
+        <v>-0.05146641841997714</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.06302492609706868</v>
+        <v>0.1372006994660886</v>
       </c>
       <c r="C81">
-        <v>-0.04839211811833247</v>
+        <v>-0.09726380767539466</v>
       </c>
       <c r="D81">
-        <v>-0.1667968469338343</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01501903133275347</v>
+      </c>
+      <c r="E81">
+        <v>0.04200369510400749</v>
+      </c>
+      <c r="F81">
+        <v>-0.1232793223252154</v>
+      </c>
+      <c r="G81">
+        <v>-0.02072499467325054</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1381493993213053</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.08366790623179227</v>
       </c>
       <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.01050688334983268</v>
+      </c>
+      <c r="E82">
+        <v>0.1108544844839007</v>
+      </c>
+      <c r="F82">
+        <v>-0.05635675751521989</v>
+      </c>
+      <c r="G82">
+        <v>-0.05994958522826012</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.01416322042075428</v>
+        <v>0.03598252053110063</v>
       </c>
       <c r="C83">
-        <v>-0.00484858552527953</v>
+        <v>-0.02871899423125675</v>
       </c>
       <c r="D83">
-        <v>-0.02117699456508063</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.006058183034628279</v>
+      </c>
+      <c r="E83">
+        <v>-0.03274832042974625</v>
+      </c>
+      <c r="F83">
+        <v>0.02765666978331239</v>
+      </c>
+      <c r="G83">
+        <v>-0.0622417902118798</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.09560649676426294</v>
+        <v>0.2106418547184017</v>
       </c>
       <c r="C85">
-        <v>-0.06169878105125894</v>
+        <v>-0.1466994594226063</v>
       </c>
       <c r="D85">
-        <v>-0.2633690206639593</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01712694462420344</v>
+      </c>
+      <c r="E85">
+        <v>0.1085723787587353</v>
+      </c>
+      <c r="F85">
+        <v>-0.1031545415679812</v>
+      </c>
+      <c r="G85">
+        <v>0.06135345792713341</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01515776692967677</v>
+        <v>0.01381464707993488</v>
       </c>
       <c r="C86">
-        <v>-0.003961173518034328</v>
+        <v>-0.02520004200816501</v>
       </c>
       <c r="D86">
-        <v>-0.03767418540804261</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01162870973231402</v>
+      </c>
+      <c r="E86">
+        <v>-0.05373155205579241</v>
+      </c>
+      <c r="F86">
+        <v>0.01344119736390442</v>
+      </c>
+      <c r="G86">
+        <v>-0.1928219733634245</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.003000426201146566</v>
+        <v>0.02216078023400389</v>
       </c>
       <c r="C87">
-        <v>0.01192577999063967</v>
+        <v>-0.01876796547670995</v>
       </c>
       <c r="D87">
-        <v>-0.02883578241900444</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.01213322487737568</v>
+      </c>
+      <c r="E87">
+        <v>-0.09722988348141244</v>
+      </c>
+      <c r="F87">
+        <v>-0.00118613176877811</v>
+      </c>
+      <c r="G87">
+        <v>-0.1204414365400141</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.04944530363551828</v>
+        <v>0.09319036529881644</v>
       </c>
       <c r="C88">
-        <v>-0.005629857575186533</v>
+        <v>-0.06824457820902904</v>
       </c>
       <c r="D88">
-        <v>-0.04152916699814536</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02196225194033593</v>
+      </c>
+      <c r="E88">
+        <v>0.00504929398204997</v>
+      </c>
+      <c r="F88">
+        <v>-0.02007318795592371</v>
+      </c>
+      <c r="G88">
+        <v>-0.1018889250315327</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.338146515051386</v>
+        <v>0.2331004341276398</v>
       </c>
       <c r="C89">
-        <v>-0.2047116040112529</v>
+        <v>0.3679862669997424</v>
       </c>
       <c r="D89">
-        <v>0.2066525894210905</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0001635124952722471</v>
+      </c>
+      <c r="E89">
+        <v>0.01931604413849294</v>
+      </c>
+      <c r="F89">
+        <v>-0.02420774047092895</v>
+      </c>
+      <c r="G89">
+        <v>-0.0686235568415858</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.279414910675297</v>
+        <v>0.2079349685828374</v>
       </c>
       <c r="C90">
-        <v>-0.1730589057189354</v>
+        <v>0.3172753290222579</v>
       </c>
       <c r="D90">
-        <v>0.1883972595939844</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.004633716004263972</v>
+      </c>
+      <c r="E90">
+        <v>0.001405575649531106</v>
+      </c>
+      <c r="F90">
+        <v>-0.04553293693864138</v>
+      </c>
+      <c r="G90">
+        <v>-0.04363054486014285</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.09586520824108459</v>
+        <v>0.1854057818793107</v>
       </c>
       <c r="C91">
-        <v>-0.07700845551434936</v>
+        <v>-0.1404398698093484</v>
       </c>
       <c r="D91">
-        <v>-0.2203102761352064</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02220150955127356</v>
+      </c>
+      <c r="E91">
+        <v>0.07134505372767659</v>
+      </c>
+      <c r="F91">
+        <v>-0.1334644611358242</v>
+      </c>
+      <c r="G91">
+        <v>-0.03448326486988596</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.2336369728267306</v>
+        <v>0.1990560782455821</v>
       </c>
       <c r="C92">
-        <v>-0.1805356705001539</v>
+        <v>0.2573660146429553</v>
       </c>
       <c r="D92">
-        <v>0.09544400876579341</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03817023118628352</v>
+      </c>
+      <c r="E92">
+        <v>-0.03563851863108037</v>
+      </c>
+      <c r="F92">
+        <v>-0.05841179603905837</v>
+      </c>
+      <c r="G92">
+        <v>-0.1118530993748951</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.295542916484243</v>
+        <v>0.2318118600793994</v>
       </c>
       <c r="C93">
-        <v>-0.1894424567944087</v>
+        <v>0.3123405850965706</v>
       </c>
       <c r="D93">
-        <v>0.1561189017866511</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01129827501230892</v>
+      </c>
+      <c r="E93">
+        <v>-0.001508322599280135</v>
+      </c>
+      <c r="F93">
+        <v>-0.04293261582646066</v>
+      </c>
+      <c r="G93">
+        <v>-0.05912887109140326</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1473481577064922</v>
+        <v>0.3229699566027397</v>
       </c>
       <c r="C94">
-        <v>-0.08702523352471704</v>
+        <v>-0.1812814884945945</v>
       </c>
       <c r="D94">
-        <v>-0.2852588466206181</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.02040070090994998</v>
+      </c>
+      <c r="E94">
+        <v>0.2496303910561432</v>
+      </c>
+      <c r="F94">
+        <v>-0.4689358494633705</v>
+      </c>
+      <c r="G94">
+        <v>0.4060551183578828</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.003094133464355255</v>
+        <v>0.1004227615751507</v>
       </c>
       <c r="C95">
-        <v>-0.01076254122113765</v>
+        <v>-0.08909580733873852</v>
       </c>
       <c r="D95">
-        <v>-0.1243410460688183</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.009779525389545079</v>
+      </c>
+      <c r="E95">
+        <v>-0.09193831420389664</v>
+      </c>
+      <c r="F95">
+        <v>0.1696504716958248</v>
+      </c>
+      <c r="G95">
+        <v>0.001619418758540695</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1359696789148749</v>
+        <v>0.1936091347947564</v>
       </c>
       <c r="C98">
-        <v>-0.1033208496813116</v>
+        <v>-0.04456940794938226</v>
       </c>
       <c r="D98">
-        <v>-0.1318926422946128</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01243668904516138</v>
+      </c>
+      <c r="E98">
+        <v>-0.08897034197924621</v>
+      </c>
+      <c r="F98">
+        <v>0.2352684747166449</v>
+      </c>
+      <c r="G98">
+        <v>0.02691252995129246</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.008659344870196036</v>
+        <v>0.008442960225241242</v>
       </c>
       <c r="C101">
-        <v>0.001560642595390865</v>
+        <v>-0.02317786495247125</v>
       </c>
       <c r="D101">
-        <v>-0.01605014760712067</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.009237717621804937</v>
+      </c>
+      <c r="E101">
+        <v>-0.005611574704409337</v>
+      </c>
+      <c r="F101">
+        <v>-0.01543965701894875</v>
+      </c>
+      <c r="G101">
+        <v>-0.09825422248814339</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.0567253799557135</v>
+        <v>0.115085462257962</v>
       </c>
       <c r="C102">
-        <v>-0.02847757336976121</v>
+        <v>-0.08357519235016038</v>
       </c>
       <c r="D102">
-        <v>-0.1363882156526504</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0009352291740637477</v>
+      </c>
+      <c r="E102">
+        <v>0.03669409287662936</v>
+      </c>
+      <c r="F102">
+        <v>-0.03799206205591621</v>
+      </c>
+      <c r="G102">
+        <v>-0.01343887480104229</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.5336014129908271</v>
+        <v>0.02109564618060645</v>
       </c>
       <c r="C104">
-        <v>0.835152400563308</v>
+        <v>0.03001589123613824</v>
       </c>
       <c r="D104">
-        <v>0.02477159841949156</v>
+        <v>0.987761038032702</v>
+      </c>
+      <c r="E104">
+        <v>0.05455326772896549</v>
+      </c>
+      <c r="F104">
+        <v>-0.03352408638653322</v>
+      </c>
+      <c r="G104">
+        <v>0.0397218103920836</v>
       </c>
     </row>
   </sheetData>
